--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Swaps.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Swaps.xlsx
@@ -18,9 +18,6 @@
     <sheet name="3M (2)" sheetId="22" r:id="rId9"/>
     <sheet name="6M (2)" sheetId="23" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!$D$16</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
@@ -57,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="108">
   <si>
     <t>Currency</t>
   </si>
@@ -379,6 +376,9 @@
   <si>
     <t>-Mx</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -394,7 +394,7 @@
     <numFmt numFmtId="170" formatCode="General_)"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1045,22 +1045,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1355,7 +1339,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="14" customWidth="1"/>
@@ -1366,13 +1350,13 @@
     <col min="7" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="109" t="s">
         <v>55</v>
@@ -1381,14 +1365,14 @@
       <c r="D2" s="110"/>
       <c r="E2" s="111"/>
     </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="26"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="26"/>
       <c r="C4" s="36" t="s">
@@ -1397,7 +1381,7 @@
       <c r="D4" s="37"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="26"/>
       <c r="C5" s="36" t="s">
@@ -1408,7 +1392,7 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="26"/>
       <c r="C6" s="36" t="s">
@@ -1419,7 +1403,7 @@
       </c>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="26"/>
       <c r="C7" s="36" t="s">
@@ -1430,19 +1414,18 @@
       </c>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="26"/>
       <c r="C8" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="38" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="26"/>
       <c r="C9" s="36" t="s">
@@ -1453,15 +1436,15 @@
       </c>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="109" t="s">
         <v>74</v>
       </c>
@@ -1472,13 +1455,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
       <c r="C14" s="40" t="s">
         <v>0</v>
@@ -1491,7 +1474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="32"/>
       <c r="C15" s="40" t="s">
         <v>82</v>
@@ -1501,7 +1484,7 @@
       </c>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="32"/>
       <c r="C16" s="40" t="s">
         <v>83</v>
@@ -1511,7 +1494,7 @@
       </c>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="32"/>
       <c r="C17" s="40" t="s">
         <v>84</v>
@@ -1521,7 +1504,7 @@
       </c>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="32"/>
       <c r="C18" s="40" t="s">
         <v>1</v>
@@ -1531,7 +1514,7 @@
       </c>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="32"/>
       <c r="C19" s="40" t="s">
         <v>61</v>
@@ -1541,7 +1524,7 @@
       </c>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="107"/>
       <c r="B20" s="32"/>
       <c r="C20" s="40" t="s">
@@ -1553,7 +1536,7 @@
       </c>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75">
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="32"/>
       <c r="C21" s="40" t="s">
         <v>105</v>
@@ -1564,7 +1547,7 @@
       </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1">
+    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -1605,7 +1588,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -1627,7 +1610,7 @@
     <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1643,7 +1626,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1669,7 +1652,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -1696,17 +1679,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YC6M-MxRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1731,7 +1714,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1747,7 +1730,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -1804,7 +1787,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -1859,7 +1842,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -1914,7 +1897,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -1969,7 +1952,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1">
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -2024,7 +2007,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -2070,7 +2053,7 @@
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -2116,7 +2099,7 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -2162,7 +2145,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -2208,7 +2191,7 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -2254,7 +2237,7 @@
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -2300,7 +2283,7 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -2346,7 +2329,7 @@
       </c>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -2392,7 +2375,7 @@
       </c>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -2438,7 +2421,7 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -2484,7 +2467,7 @@
       </c>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
@@ -2530,7 +2513,7 @@
       </c>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -2576,7 +2559,7 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -2622,7 +2605,7 @@
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -2668,7 +2651,7 @@
       </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
@@ -2714,7 +2697,7 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>76</v>
@@ -2760,7 +2743,7 @@
       </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
@@ -2806,7 +2789,7 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -2852,7 +2835,7 @@
       </c>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>76</v>
@@ -2898,7 +2881,7 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
@@ -2944,7 +2927,7 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -2990,7 +2973,7 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -3036,7 +3019,7 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -3082,7 +3065,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -3128,7 +3111,7 @@
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>76</v>
@@ -3174,7 +3157,7 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>76</v>
@@ -3220,7 +3203,7 @@
       </c>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>76</v>
@@ -3266,7 +3249,7 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -3312,7 +3295,7 @@
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -3358,7 +3341,7 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -3404,7 +3387,7 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -3450,7 +3433,7 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>76</v>
@@ -3496,7 +3479,7 @@
       </c>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5" thickBot="1">
+    <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -3534,7 +3517,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -3556,7 +3539,7 @@
     <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3572,7 +3555,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3596,7 +3579,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -3623,17 +3606,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YCSTDRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3658,7 +3641,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3674,7 +3657,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -3727,7 +3710,7 @@
       <c r="Q6" s="71"/>
       <c r="R6" s="72"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -3782,7 +3765,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -3837,7 +3820,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -3888,7 +3871,7 @@
       <c r="Q9" s="49"/>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1">
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -3943,7 +3926,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -3989,7 +3972,7 @@
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -4035,7 +4018,7 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -4081,7 +4064,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -4127,7 +4110,7 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -4173,7 +4156,7 @@
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -4219,7 +4202,7 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -4265,7 +4248,7 @@
       </c>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -4311,7 +4294,7 @@
       </c>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -4357,7 +4340,7 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -4403,7 +4386,7 @@
       </c>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
@@ -4449,7 +4432,7 @@
       </c>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -4495,7 +4478,7 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -4541,7 +4524,7 @@
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -4587,7 +4570,7 @@
       </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
@@ -4633,7 +4616,7 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>76</v>
@@ -4679,7 +4662,7 @@
       </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
@@ -4725,7 +4708,7 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -4771,7 +4754,7 @@
       </c>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>76</v>
@@ -4817,7 +4800,7 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
@@ -4863,7 +4846,7 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -4909,7 +4892,7 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -4955,7 +4938,7 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -5001,7 +4984,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -5047,7 +5030,7 @@
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>76</v>
@@ -5093,7 +5076,7 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>76</v>
@@ -5139,7 +5122,7 @@
       </c>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>76</v>
@@ -5185,7 +5168,7 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -5231,7 +5214,7 @@
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -5277,7 +5260,7 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -5323,7 +5306,7 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -5369,7 +5352,7 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>76</v>
@@ -5415,7 +5398,7 @@
       </c>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5" thickBot="1">
+    <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -5453,7 +5436,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="77" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="77" bestFit="1" customWidth="1"/>
@@ -5474,7 +5457,7 @@
     <col min="18" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="73"/>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -5490,7 +5473,7 @@
       <c r="M1" s="74"/>
       <c r="N1" s="76"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="78"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -5512,7 +5495,7 @@
       <c r="M2" s="79"/>
       <c r="N2" s="81"/>
     </row>
-    <row r="3" spans="1:17" ht="36" customHeight="1">
+    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78"/>
       <c r="B3" s="82" t="s">
         <v>75</v>
@@ -5541,17 +5524,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YCRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="84" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L77),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>53</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="81"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="86"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -5576,7 +5559,7 @@
       </c>
       <c r="N4" s="81"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="86"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -5592,7 +5575,7 @@
       <c r="M5" s="79"/>
       <c r="N5" s="81"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="78"/>
       <c r="B6" s="90"/>
       <c r="C6" s="91" t="s">
@@ -5643,7 +5626,7 @@
         <v>41494</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
       <c r="B7" s="90"/>
       <c r="C7" s="91" t="s">
@@ -5695,7 +5678,7 @@
         <v>41501</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
       <c r="B8" s="90"/>
       <c r="C8" s="91" t="s">
@@ -5747,7 +5730,7 @@
         <v>41508</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="78"/>
       <c r="B9" s="90"/>
       <c r="C9" s="91" t="s">
@@ -5799,7 +5782,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91" t="s">
@@ -5851,7 +5834,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="90"/>
       <c r="C11" s="91" t="s">
@@ -5903,7 +5886,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="90"/>
       <c r="C12" s="91" t="s">
@@ -5955,7 +5938,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="90"/>
       <c r="C13" s="91" t="s">
@@ -6007,7 +5990,7 @@
         <v>41641</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
@@ -6059,7 +6042,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91" t="s">
@@ -6111,7 +6094,7 @@
         <v>41701</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="90"/>
       <c r="C16" s="91" t="s">
@@ -6163,7 +6146,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="90"/>
       <c r="C17" s="91" t="s">
@@ -6215,7 +6198,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="90"/>
       <c r="C18" s="91" t="s">
@@ -6267,7 +6250,7 @@
         <v>41792</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="90"/>
       <c r="C19" s="91" t="s">
@@ -6319,7 +6302,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="90"/>
       <c r="C20" s="91" t="s">
@@ -6371,7 +6354,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="90"/>
       <c r="C21" s="91" t="s">
@@ -6423,7 +6406,7 @@
         <v>41946</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="90"/>
       <c r="C22" s="91" t="s">
@@ -6475,7 +6458,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="90"/>
       <c r="C23" s="91" t="s">
@@ -6527,7 +6510,7 @@
         <v>42128</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
       <c r="B24" s="90"/>
       <c r="C24" s="91" t="s">
@@ -6579,7 +6562,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="78"/>
       <c r="B25" s="90"/>
       <c r="C25" s="91" t="s">
@@ -6631,7 +6614,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="78"/>
       <c r="B26" s="90"/>
       <c r="C26" s="91" t="s">
@@ -6683,7 +6666,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="78"/>
       <c r="B27" s="90"/>
       <c r="C27" s="91" t="s">
@@ -6735,7 +6718,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="78"/>
       <c r="B28" s="90"/>
       <c r="C28" s="91" t="s">
@@ -6787,7 +6770,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="78"/>
       <c r="B29" s="90"/>
       <c r="C29" s="91" t="s">
@@ -6839,7 +6822,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="78"/>
       <c r="B30" s="90"/>
       <c r="C30" s="91" t="s">
@@ -6891,7 +6874,7 @@
         <v>44410</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="78"/>
       <c r="B31" s="90"/>
       <c r="C31" s="91" t="s">
@@ -6943,7 +6926,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="90"/>
       <c r="C32" s="91" t="s">
@@ -6995,7 +6978,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="78"/>
       <c r="B33" s="90"/>
       <c r="C33" s="91" t="s">
@@ -7047,7 +7030,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="90"/>
       <c r="C34" s="91" t="s">
@@ -7099,7 +7082,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="78"/>
       <c r="B35" s="90"/>
       <c r="C35" s="91" t="s">
@@ -7151,7 +7134,7 @@
         <v>46966</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="90"/>
       <c r="C36" s="91" t="s">
@@ -7203,7 +7186,7 @@
         <v>48792</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
       <c r="B37" s="90"/>
       <c r="C37" s="91" t="s">
@@ -7255,7 +7238,7 @@
         <v>50619</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="90"/>
       <c r="C38" s="91" t="s">
@@ -7307,7 +7290,7 @@
         <v>52446</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
       <c r="B39" s="90"/>
       <c r="C39" s="91" t="s">
@@ -7353,7 +7336,7 @@
       <c r="P39" s="106"/>
       <c r="Q39" s="106"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="90"/>
       <c r="C40" s="91" t="s">
@@ -7399,7 +7382,7 @@
       <c r="P40" s="106"/>
       <c r="Q40" s="106"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
       <c r="B41" s="90"/>
       <c r="C41" s="91" t="s">
@@ -7445,7 +7428,7 @@
       <c r="P41" s="106"/>
       <c r="Q41" s="106"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="96"/>
       <c r="C42" s="96"/>
@@ -7463,7 +7446,7 @@
       <c r="P42" s="106"/>
       <c r="Q42" s="106"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
       <c r="B43" s="99">
         <f>_xll.qlECBdate(E43,,Trigger)</f>
@@ -7516,7 +7499,7 @@
         <v>41164</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
       <c r="B44" s="99">
         <f>_xll.qlECBdate(E44,,Trigger)</f>
@@ -7569,7 +7552,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
       <c r="B45" s="99">
         <f>_xll.qlECBdate(E45,,Trigger)</f>
@@ -7622,7 +7605,7 @@
         <v>41227</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
       <c r="B46" s="99">
         <f>_xll.qlECBdate(E46,,Trigger)</f>
@@ -7675,7 +7658,7 @@
         <v>41255</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
       <c r="B47" s="99">
         <f>_xll.qlECBdate(E47,,Trigger)</f>
@@ -7728,7 +7711,7 @@
         <v>41290</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
       <c r="B48" s="99">
         <f>_xll.qlECBdate(E48,,Trigger)</f>
@@ -7781,7 +7764,7 @@
         <v>41318</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
       <c r="B49" s="99">
         <f>_xll.qlECBdate(E49,,Trigger)</f>
@@ -7834,7 +7817,7 @@
         <v>41346</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
       <c r="B50" s="99">
         <f>_xll.qlECBdate(E50,,Trigger)</f>
@@ -7887,7 +7870,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
       <c r="B51" s="99">
         <f>_xll.qlECBdate(E51,,Trigger)</f>
@@ -7940,7 +7923,7 @@
         <v>41402</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="78"/>
       <c r="B52" s="99">
         <f>_xll.qlECBdate(E52,,Trigger)</f>
@@ -7993,7 +7976,7 @@
         <v>41437</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="78"/>
       <c r="B53" s="99">
         <f>_xll.qlECBdate(E53,,Trigger)</f>
@@ -8046,7 +8029,7 @@
         <v>41465</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
       <c r="B54" s="99">
         <f>_xll.qlECBdate(E54,,Trigger)</f>
@@ -8099,7 +8082,7 @@
         <v>41493</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="78"/>
       <c r="B55" s="99">
         <f>_xll.qlECBdate(E55,,Trigger)</f>
@@ -8152,7 +8135,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="78"/>
       <c r="B56" s="99">
         <f>_xll.qlECBdate(E56,,Trigger)</f>
@@ -8205,7 +8188,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
       <c r="B57" s="99">
         <f>_xll.qlECBdate(E57,,Trigger)</f>
@@ -8258,7 +8241,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="78"/>
       <c r="B58" s="99">
         <f>_xll.qlECBdate(E58,,Trigger)</f>
@@ -8311,7 +8294,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="78"/>
       <c r="B59" s="99">
         <f>_xll.qlECBdate(E59,,Trigger)</f>
@@ -8364,7 +8347,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
       <c r="B60" s="99" t="e">
         <f>_xll.qlECBdate(E60,,Trigger)</f>
@@ -8417,7 +8400,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
       <c r="B61" s="99" t="e">
         <f>_xll.qlECBdate(E61,,Trigger)</f>
@@ -8470,7 +8453,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
       <c r="B62" s="99" t="e">
         <f>_xll.qlECBdate(E62,,Trigger)</f>
@@ -8523,7 +8506,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
       <c r="B63" s="99" t="e">
         <f>_xll.qlECBdate(E63,,Trigger)</f>
@@ -8576,7 +8559,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
       <c r="B64" s="99" t="e">
         <f>_xll.qlECBdate(E64,,Trigger)</f>
@@ -8629,7 +8612,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="78"/>
       <c r="B65" s="99" t="e">
         <f>_xll.qlECBdate(E65,,Trigger)</f>
@@ -8682,7 +8665,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="78"/>
       <c r="B66" s="99" t="e">
         <f>_xll.qlECBdate(E66,,Trigger)</f>
@@ -8735,7 +8718,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="99" t="e">
         <f>_xll.qlECBdate(E67,,Trigger)</f>
@@ -8788,7 +8771,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="99" t="e">
         <f>_xll.qlECBdate(E68,,Trigger)</f>
@@ -8838,7 +8821,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="99" t="e">
         <f>_xll.qlECBdate(E69,,Trigger)</f>
@@ -8888,7 +8871,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="99" t="e">
         <f>_xll.qlECBdate(E70,,Trigger)</f>
@@ -8938,7 +8921,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="99" t="e">
         <f>_xll.qlECBdate(E71,,Trigger)</f>
@@ -8988,7 +8971,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="78"/>
       <c r="B72" s="99" t="e">
         <f>_xll.qlECBdate(E72,,Trigger)</f>
@@ -9038,7 +9021,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="78"/>
       <c r="B73" s="99" t="e">
         <f>_xll.qlECBdate(E73,,Trigger)</f>
@@ -9088,7 +9071,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="78"/>
       <c r="B74" s="99" t="e">
         <f>_xll.qlECBdate(E74,,Trigger)</f>
@@ -9138,7 +9121,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="78"/>
       <c r="B75" s="99" t="e">
         <f>_xll.qlECBdate(E75,,Trigger)</f>
@@ -9188,7 +9171,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="78"/>
       <c r="B76" s="99" t="e">
         <f>_xll.qlECBdate(E76,,Trigger)</f>
@@ -9238,7 +9221,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="78"/>
       <c r="B77" s="99" t="e">
         <f>_xll.qlECBdate(E77,,Trigger)</f>
@@ -9288,7 +9271,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="78"/>
       <c r="B78" s="96"/>
       <c r="C78" s="96"/>
@@ -9304,7 +9287,7 @@
       <c r="M78" s="98"/>
       <c r="N78" s="81"/>
     </row>
-    <row r="79" spans="1:17" ht="12" thickBot="1">
+    <row r="79" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="100"/>
       <c r="B79" s="101"/>
       <c r="C79" s="101"/>
@@ -9345,7 +9328,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="77" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="77" bestFit="1" customWidth="1"/>
@@ -9364,7 +9347,7 @@
     <col min="18" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="73"/>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -9380,7 +9363,7 @@
       <c r="M1" s="74"/>
       <c r="N1" s="76"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="78"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -9404,7 +9387,7 @@
       <c r="M2" s="79"/>
       <c r="N2" s="81"/>
     </row>
-    <row r="3" spans="1:17" ht="36" customHeight="1">
+    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78"/>
       <c r="B3" s="82" t="s">
         <v>75</v>
@@ -9433,17 +9416,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YCONRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="84" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L77),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>53</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="81"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="86"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -9468,7 +9451,7 @@
       </c>
       <c r="N4" s="81"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="86"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -9484,7 +9467,7 @@
       <c r="M5" s="79"/>
       <c r="N5" s="81"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="78"/>
       <c r="B6" s="90"/>
       <c r="C6" s="91" t="s">
@@ -9535,7 +9518,7 @@
         <v>41494</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
       <c r="B7" s="90"/>
       <c r="C7" s="91" t="s">
@@ -9587,7 +9570,7 @@
         <v>41501</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
       <c r="B8" s="90"/>
       <c r="C8" s="91" t="s">
@@ -9639,7 +9622,7 @@
         <v>41508</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="78"/>
       <c r="B9" s="90"/>
       <c r="C9" s="91" t="s">
@@ -9691,7 +9674,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91" t="s">
@@ -9743,7 +9726,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="90"/>
       <c r="C11" s="91" t="s">
@@ -9795,7 +9778,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="90"/>
       <c r="C12" s="91" t="s">
@@ -9847,7 +9830,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="90"/>
       <c r="C13" s="91" t="s">
@@ -9899,7 +9882,7 @@
         <v>41641</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
@@ -9951,7 +9934,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91" t="s">
@@ -10003,7 +9986,7 @@
         <v>41701</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="90"/>
       <c r="C16" s="91" t="s">
@@ -10055,7 +10038,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="90"/>
       <c r="C17" s="91" t="s">
@@ -10107,7 +10090,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="90"/>
       <c r="C18" s="91" t="s">
@@ -10159,7 +10142,7 @@
         <v>41792</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="90"/>
       <c r="C19" s="91" t="s">
@@ -10211,7 +10194,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="90"/>
       <c r="C20" s="91" t="s">
@@ -10263,7 +10246,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="90"/>
       <c r="C21" s="91" t="s">
@@ -10315,7 +10298,7 @@
         <v>41946</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="90"/>
       <c r="C22" s="91" t="s">
@@ -10367,7 +10350,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="90"/>
       <c r="C23" s="91" t="s">
@@ -10419,7 +10402,7 @@
         <v>42128</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
       <c r="B24" s="90"/>
       <c r="C24" s="91" t="s">
@@ -10471,7 +10454,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="78"/>
       <c r="B25" s="90"/>
       <c r="C25" s="91" t="s">
@@ -10523,7 +10506,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="78"/>
       <c r="B26" s="90"/>
       <c r="C26" s="91" t="s">
@@ -10575,7 +10558,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="78"/>
       <c r="B27" s="90"/>
       <c r="C27" s="91" t="s">
@@ -10627,7 +10610,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="78"/>
       <c r="B28" s="90"/>
       <c r="C28" s="91" t="s">
@@ -10679,7 +10662,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="78"/>
       <c r="B29" s="90"/>
       <c r="C29" s="91" t="s">
@@ -10731,7 +10714,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="78"/>
       <c r="B30" s="90"/>
       <c r="C30" s="91" t="s">
@@ -10783,7 +10766,7 @@
         <v>44410</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="78"/>
       <c r="B31" s="90"/>
       <c r="C31" s="91" t="s">
@@ -10835,7 +10818,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="90"/>
       <c r="C32" s="91" t="s">
@@ -10887,7 +10870,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="78"/>
       <c r="B33" s="90"/>
       <c r="C33" s="91" t="s">
@@ -10939,7 +10922,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="90"/>
       <c r="C34" s="91" t="s">
@@ -10991,7 +10974,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="78"/>
       <c r="B35" s="90"/>
       <c r="C35" s="91" t="s">
@@ -11043,7 +11026,7 @@
         <v>46966</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="90"/>
       <c r="C36" s="91" t="s">
@@ -11095,7 +11078,7 @@
         <v>48792</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
       <c r="B37" s="90"/>
       <c r="C37" s="91" t="s">
@@ -11147,7 +11130,7 @@
         <v>50619</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="90"/>
       <c r="C38" s="91" t="s">
@@ -11199,7 +11182,7 @@
         <v>52446</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
       <c r="B39" s="90"/>
       <c r="C39" s="91" t="s">
@@ -11251,7 +11234,7 @@
         <v>56097</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="90"/>
       <c r="C40" s="91" t="s">
@@ -11303,7 +11286,7 @@
         <v>59749</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
       <c r="B41" s="90"/>
       <c r="C41" s="91" t="s">
@@ -11355,7 +11338,7 @@
         <v>63402</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="96"/>
       <c r="C42" s="96"/>
@@ -11373,7 +11356,7 @@
       <c r="P42" s="106"/>
       <c r="Q42" s="106"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
       <c r="B43" s="99">
         <f>_xll.qlECBdate(E43,,Trigger)</f>
@@ -11426,7 +11409,7 @@
         <v>41164</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
       <c r="B44" s="99">
         <f>_xll.qlECBdate(E44,,Trigger)</f>
@@ -11479,7 +11462,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
       <c r="B45" s="99">
         <f>_xll.qlECBdate(E45,,Trigger)</f>
@@ -11532,7 +11515,7 @@
         <v>41227</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
       <c r="B46" s="99">
         <f>_xll.qlECBdate(E46,,Trigger)</f>
@@ -11585,7 +11568,7 @@
         <v>41255</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
       <c r="B47" s="99">
         <f>_xll.qlECBdate(E47,,Trigger)</f>
@@ -11638,7 +11621,7 @@
         <v>41290</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
       <c r="B48" s="99">
         <f>_xll.qlECBdate(E48,,Trigger)</f>
@@ -11691,7 +11674,7 @@
         <v>41318</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
       <c r="B49" s="99">
         <f>_xll.qlECBdate(E49,,Trigger)</f>
@@ -11744,7 +11727,7 @@
         <v>41346</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
       <c r="B50" s="99">
         <f>_xll.qlECBdate(E50,,Trigger)</f>
@@ -11797,7 +11780,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
       <c r="B51" s="99">
         <f>_xll.qlECBdate(E51,,Trigger)</f>
@@ -11850,7 +11833,7 @@
         <v>41402</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="78"/>
       <c r="B52" s="99">
         <f>_xll.qlECBdate(E52,,Trigger)</f>
@@ -11903,7 +11886,7 @@
         <v>41437</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="78"/>
       <c r="B53" s="99">
         <f>_xll.qlECBdate(E53,,Trigger)</f>
@@ -11956,7 +11939,7 @@
         <v>41465</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
       <c r="B54" s="99">
         <f>_xll.qlECBdate(E54,,Trigger)</f>
@@ -12009,7 +11992,7 @@
         <v>41493</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="78"/>
       <c r="B55" s="99">
         <f>_xll.qlECBdate(E55,,Trigger)</f>
@@ -12062,7 +12045,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="78"/>
       <c r="B56" s="99">
         <f>_xll.qlECBdate(E56,,Trigger)</f>
@@ -12115,7 +12098,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
       <c r="B57" s="99">
         <f>_xll.qlECBdate(E57,,Trigger)</f>
@@ -12168,7 +12151,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="78"/>
       <c r="B58" s="99">
         <f>_xll.qlECBdate(E58,,Trigger)</f>
@@ -12221,7 +12204,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="78"/>
       <c r="B59" s="99">
         <f>_xll.qlECBdate(E59,,Trigger)</f>
@@ -12274,7 +12257,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
       <c r="B60" s="99" t="e">
         <f>_xll.qlECBdate(E60,,Trigger)</f>
@@ -12327,7 +12310,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
       <c r="B61" s="99" t="e">
         <f>_xll.qlECBdate(E61,,Trigger)</f>
@@ -12380,7 +12363,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
       <c r="B62" s="99" t="e">
         <f>_xll.qlECBdate(E62,,Trigger)</f>
@@ -12433,7 +12416,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
       <c r="B63" s="99" t="e">
         <f>_xll.qlECBdate(E63,,Trigger)</f>
@@ -12486,7 +12469,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
       <c r="B64" s="99" t="e">
         <f>_xll.qlECBdate(E64,,Trigger)</f>
@@ -12539,7 +12522,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="78"/>
       <c r="B65" s="99" t="e">
         <f>_xll.qlECBdate(E65,,Trigger)</f>
@@ -12592,7 +12575,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="78"/>
       <c r="B66" s="99" t="e">
         <f>_xll.qlECBdate(E66,,Trigger)</f>
@@ -12645,7 +12628,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="99" t="e">
         <f>_xll.qlECBdate(E67,,Trigger)</f>
@@ -12698,7 +12681,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="99" t="e">
         <f>_xll.qlECBdate(E68,,Trigger)</f>
@@ -12751,7 +12734,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="99" t="e">
         <f>_xll.qlECBdate(E69,,Trigger)</f>
@@ -12804,7 +12787,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="99" t="e">
         <f>_xll.qlECBdate(E70,,Trigger)</f>
@@ -12857,7 +12840,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="99" t="e">
         <f>_xll.qlECBdate(E71,,Trigger)</f>
@@ -12910,7 +12893,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="78"/>
       <c r="B72" s="99" t="e">
         <f>_xll.qlECBdate(E72,,Trigger)</f>
@@ -12963,7 +12946,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="78"/>
       <c r="B73" s="99" t="e">
         <f>_xll.qlECBdate(E73,,Trigger)</f>
@@ -13016,7 +12999,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="78"/>
       <c r="B74" s="99" t="e">
         <f>_xll.qlECBdate(E74,,Trigger)</f>
@@ -13069,7 +13052,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="78"/>
       <c r="B75" s="99" t="e">
         <f>_xll.qlECBdate(E75,,Trigger)</f>
@@ -13122,7 +13105,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="78"/>
       <c r="B76" s="99" t="e">
         <f>_xll.qlECBdate(E76,,Trigger)</f>
@@ -13175,7 +13158,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="78"/>
       <c r="B77" s="99" t="e">
         <f>_xll.qlECBdate(E77,,Trigger)</f>
@@ -13228,7 +13211,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="12" thickBot="1">
+    <row r="78" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="100"/>
       <c r="B78" s="101"/>
       <c r="C78" s="101"/>
@@ -13277,7 +13260,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -13296,7 +13279,7 @@
     <col min="15" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -13312,7 +13295,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13336,7 +13319,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:14" ht="36" customHeight="1">
+    <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -13365,17 +13348,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YC1MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>12</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -13400,7 +13383,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -13416,7 +13399,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -13461,7 +13444,7 @@
       </c>
       <c r="N6" s="58"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -13506,7 +13489,7 @@
       </c>
       <c r="N7" s="58"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -13551,7 +13534,7 @@
       </c>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -13596,7 +13579,7 @@
       </c>
       <c r="N9" s="58"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -13641,7 +13624,7 @@
       </c>
       <c r="N10" s="58"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -13686,7 +13669,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -13731,7 +13714,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -13776,7 +13759,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -13821,7 +13804,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -13866,7 +13849,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -13911,7 +13894,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -13927,7 +13910,7 @@
       <c r="M17" s="63"/>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14" ht="12" thickBot="1">
+    <row r="18" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -13968,7 +13951,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -13991,7 +13974,7 @@
     <col min="19" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -14007,7 +13990,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -14031,7 +14014,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="36" customHeight="1">
+    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -14058,17 +14041,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YC3MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>45</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14093,7 +14076,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" ht="12" thickBot="1">
+    <row r="5" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14109,7 +14092,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -14166,7 +14149,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -14221,7 +14204,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -14276,7 +14259,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -14331,7 +14314,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" thickBot="1">
+    <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -14386,7 +14369,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -14432,7 +14415,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -14478,7 +14461,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -14524,7 +14507,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -14570,7 +14553,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -14616,7 +14599,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -14662,7 +14645,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -14708,7 +14691,7 @@
       </c>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -14754,7 +14737,7 @@
       </c>
       <c r="N18" s="58"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -14800,7 +14783,7 @@
       </c>
       <c r="N19" s="58"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -14846,7 +14829,7 @@
       </c>
       <c r="N20" s="58"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
@@ -14892,7 +14875,7 @@
       </c>
       <c r="N21" s="58"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -14938,7 +14921,7 @@
       </c>
       <c r="N22" s="58"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -14984,7 +14967,7 @@
       </c>
       <c r="N23" s="58"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -15030,7 +15013,7 @@
       </c>
       <c r="N24" s="58"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
@@ -15076,7 +15059,7 @@
       </c>
       <c r="N25" s="58"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>76</v>
@@ -15122,7 +15105,7 @@
       </c>
       <c r="N26" s="58"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
@@ -15168,7 +15151,7 @@
       </c>
       <c r="N27" s="58"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -15214,7 +15197,7 @@
       </c>
       <c r="N28" s="58"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>76</v>
@@ -15260,7 +15243,7 @@
       </c>
       <c r="N29" s="58"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
@@ -15306,7 +15289,7 @@
       </c>
       <c r="N30" s="58"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -15352,7 +15335,7 @@
       </c>
       <c r="N31" s="58"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -15398,7 +15381,7 @@
       </c>
       <c r="N32" s="58"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -15444,7 +15427,7 @@
       </c>
       <c r="N33" s="58"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -15490,7 +15473,7 @@
       </c>
       <c r="N34" s="58"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>76</v>
@@ -15536,7 +15519,7 @@
       </c>
       <c r="N35" s="58"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>76</v>
@@ -15582,7 +15565,7 @@
       </c>
       <c r="N36" s="58"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>76</v>
@@ -15628,7 +15611,7 @@
       </c>
       <c r="N37" s="58"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -15674,7 +15657,7 @@
       </c>
       <c r="N38" s="58"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -15720,7 +15703,7 @@
       </c>
       <c r="N39" s="58"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -15766,7 +15749,7 @@
       </c>
       <c r="N40" s="58"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -15812,7 +15795,7 @@
       </c>
       <c r="N41" s="58"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>76</v>
@@ -15858,7 +15841,7 @@
       </c>
       <c r="N42" s="58"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -15874,7 +15857,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="58"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>76</v>
@@ -15919,7 +15902,7 @@
       <c r="P44" s="67"/>
       <c r="Q44" s="67"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="7" t="s">
         <v>76</v>
@@ -15964,7 +15947,7 @@
       <c r="P45" s="67"/>
       <c r="Q45" s="67"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
         <v>76</v>
@@ -16009,7 +15992,7 @@
       <c r="P46" s="67"/>
       <c r="Q46" s="67"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="7" t="s">
         <v>76</v>
@@ -16054,7 +16037,7 @@
       <c r="P47" s="67"/>
       <c r="Q47" s="67"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="7" t="s">
         <v>76</v>
@@ -16099,7 +16082,7 @@
       <c r="P48" s="67"/>
       <c r="Q48" s="67"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="7" t="s">
         <v>76</v>
@@ -16144,7 +16127,7 @@
       <c r="P49" s="67"/>
       <c r="Q49" s="67"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="7" t="s">
         <v>76</v>
@@ -16189,7 +16172,7 @@
       <c r="P50" s="67"/>
       <c r="Q50" s="67"/>
     </row>
-    <row r="51" spans="1:17" ht="12" thickBot="1">
+    <row r="51" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -16236,7 +16219,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -16258,7 +16241,7 @@
     <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -16274,7 +16257,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -16298,7 +16281,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -16325,17 +16308,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YC6MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -16360,7 +16343,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -16376,7 +16359,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -16433,7 +16416,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -16488,7 +16471,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -16543,7 +16526,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -16598,7 +16581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1">
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -16653,7 +16636,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -16699,7 +16682,7 @@
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -16745,7 +16728,7 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -16791,7 +16774,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -16837,7 +16820,7 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -16883,7 +16866,7 @@
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -16929,7 +16912,7 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -16975,7 +16958,7 @@
       </c>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -17021,7 +17004,7 @@
       </c>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -17067,7 +17050,7 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -17113,7 +17096,7 @@
       </c>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
@@ -17159,7 +17142,7 @@
       </c>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -17205,7 +17188,7 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -17251,7 +17234,7 @@
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -17297,7 +17280,7 @@
       </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
@@ -17343,7 +17326,7 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>76</v>
@@ -17389,7 +17372,7 @@
       </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
@@ -17435,7 +17418,7 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -17481,7 +17464,7 @@
       </c>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>76</v>
@@ -17527,7 +17510,7 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
@@ -17573,7 +17556,7 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -17619,7 +17602,7 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -17665,7 +17648,7 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -17711,7 +17694,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -17757,7 +17740,7 @@
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>76</v>
@@ -17803,7 +17786,7 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>76</v>
@@ -17849,7 +17832,7 @@
       </c>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>76</v>
@@ -17895,7 +17878,7 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -17941,7 +17924,7 @@
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -17987,7 +17970,7 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -18033,7 +18016,7 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -18079,7 +18062,7 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>76</v>
@@ -18125,7 +18108,7 @@
       </c>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5" thickBot="1">
+    <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -18163,7 +18146,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -18182,7 +18165,7 @@
     <col min="15" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -18198,7 +18181,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -18224,7 +18207,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:14" ht="36" customHeight="1">
+    <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -18253,17 +18236,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YC1M-MxRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>12</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -18288,7 +18271,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -18304,7 +18287,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -18349,7 +18332,7 @@
       </c>
       <c r="N6" s="58"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -18394,7 +18377,7 @@
       </c>
       <c r="N7" s="58"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -18439,7 +18422,7 @@
       </c>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -18484,7 +18467,7 @@
       </c>
       <c r="N9" s="58"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -18529,7 +18512,7 @@
       </c>
       <c r="N10" s="58"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -18574,7 +18557,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -18619,7 +18602,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -18664,7 +18647,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -18709,7 +18692,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -18754,7 +18737,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -18799,7 +18782,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -18815,7 +18798,7 @@
       <c r="M17" s="63"/>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14" ht="12" thickBot="1">
+    <row r="18" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -18856,7 +18839,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -18879,7 +18862,7 @@
     <col min="19" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -18895,7 +18878,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -18921,7 +18904,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="36" customHeight="1">
+    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -18948,17 +18931,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YC3M-MxRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>45</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -18983,7 +18966,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" ht="12" thickBot="1">
+    <row r="5" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -18999,7 +18982,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -19056,7 +19039,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -19111,7 +19094,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -19166,7 +19149,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -19221,7 +19204,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" thickBot="1">
+    <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -19276,7 +19259,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -19322,7 +19305,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -19368,7 +19351,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -19414,7 +19397,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -19460,7 +19443,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -19506,7 +19489,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -19552,7 +19535,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -19598,7 +19581,7 @@
       </c>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -19644,7 +19627,7 @@
       </c>
       <c r="N18" s="58"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -19690,7 +19673,7 @@
       </c>
       <c r="N19" s="58"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -19736,7 +19719,7 @@
       </c>
       <c r="N20" s="58"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
@@ -19782,7 +19765,7 @@
       </c>
       <c r="N21" s="58"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -19828,7 +19811,7 @@
       </c>
       <c r="N22" s="58"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -19874,7 +19857,7 @@
       </c>
       <c r="N23" s="58"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -19920,7 +19903,7 @@
       </c>
       <c r="N24" s="58"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
@@ -19966,7 +19949,7 @@
       </c>
       <c r="N25" s="58"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>76</v>
@@ -20012,7 +19995,7 @@
       </c>
       <c r="N26" s="58"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
@@ -20058,7 +20041,7 @@
       </c>
       <c r="N27" s="58"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -20104,7 +20087,7 @@
       </c>
       <c r="N28" s="58"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>76</v>
@@ -20150,7 +20133,7 @@
       </c>
       <c r="N29" s="58"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
@@ -20196,7 +20179,7 @@
       </c>
       <c r="N30" s="58"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -20242,7 +20225,7 @@
       </c>
       <c r="N31" s="58"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -20288,7 +20271,7 @@
       </c>
       <c r="N32" s="58"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -20334,7 +20317,7 @@
       </c>
       <c r="N33" s="58"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -20380,7 +20363,7 @@
       </c>
       <c r="N34" s="58"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>76</v>
@@ -20426,7 +20409,7 @@
       </c>
       <c r="N35" s="58"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>76</v>
@@ -20472,7 +20455,7 @@
       </c>
       <c r="N36" s="58"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>76</v>
@@ -20518,7 +20501,7 @@
       </c>
       <c r="N37" s="58"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -20564,7 +20547,7 @@
       </c>
       <c r="N38" s="58"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -20610,7 +20593,7 @@
       </c>
       <c r="N39" s="58"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -20656,7 +20639,7 @@
       </c>
       <c r="N40" s="58"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -20702,7 +20685,7 @@
       </c>
       <c r="N41" s="58"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>76</v>
@@ -20748,7 +20731,7 @@
       </c>
       <c r="N42" s="58"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -20764,7 +20747,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="58"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>76</v>
@@ -20809,7 +20792,7 @@
       <c r="P44" s="67"/>
       <c r="Q44" s="67"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="7" t="s">
         <v>76</v>
@@ -20854,7 +20837,7 @@
       <c r="P45" s="67"/>
       <c r="Q45" s="67"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
         <v>76</v>
@@ -20899,7 +20882,7 @@
       <c r="P46" s="67"/>
       <c r="Q46" s="67"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="7" t="s">
         <v>76</v>
@@ -20944,7 +20927,7 @@
       <c r="P47" s="67"/>
       <c r="Q47" s="67"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="7" t="s">
         <v>76</v>
@@ -20989,7 +20972,7 @@
       <c r="P48" s="67"/>
       <c r="Q48" s="67"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="7" t="s">
         <v>76</v>
@@ -21034,7 +21017,7 @@
       <c r="P49" s="67"/>
       <c r="Q49" s="67"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="7" t="s">
         <v>76</v>
@@ -21079,7 +21062,7 @@
       <c r="P50" s="67"/>
       <c r="Q50" s="67"/>
     </row>
-    <row r="51" spans="1:17" ht="12" thickBot="1">
+    <row r="51" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Swaps.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Swaps.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="107">
   <si>
     <t>Currency</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>-Mx</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1420,8 +1417,9 @@
       <c r="C8" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>107</v>
+      <c r="D8" s="38" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -1680,12 +1678,12 @@
         <v>EUR_YC6M-MxRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
     </row>
@@ -3607,12 +3605,12 @@
         <v>EUR_YCSTDRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
     </row>
@@ -5525,12 +5523,12 @@
         <v>EUR_YCRH_Swaps.xml</v>
       </c>
       <c r="L3" s="84" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L77),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="85" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L77),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -8333,9 +8331,9 @@
         <f>_xll.qlDatedOISRateHelper(K59,B59,B60,J59,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M59" s="85" t="str">
+      <c r="M59" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L59)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N59" s="81"/>
       <c r="P59" s="106" t="e">
@@ -8386,9 +8384,9 @@
         <f>_xll.qlDatedOISRateHelper(K60,B60,B61,J60,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M60" s="85" t="str">
+      <c r="M60" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L60)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N60" s="81"/>
       <c r="P60" s="106" t="e">
@@ -8439,9 +8437,9 @@
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M61" s="85" t="str">
+      <c r="M61" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N61" s="81"/>
       <c r="P61" s="106" t="e">
@@ -8492,9 +8490,9 @@
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M62" s="85" t="str">
+      <c r="M62" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N62" s="81"/>
       <c r="P62" s="106" t="e">
@@ -8545,9 +8543,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M63" s="85" t="str">
+      <c r="M63" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -8598,9 +8596,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M64" s="85" t="str">
+      <c r="M64" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -8651,9 +8649,9 @@
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M65" s="85" t="str">
+      <c r="M65" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -8704,9 +8702,9 @@
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M66" s="85" t="str">
+      <c r="M66" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -8757,9 +8755,9 @@
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M67" s="85" t="str">
+      <c r="M67" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -9417,12 +9415,12 @@
         <v>EUR_YCONRH_Swaps.xml</v>
       </c>
       <c r="L3" s="84" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L77),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="85" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L77),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -12243,9 +12241,9 @@
         <f>_xll.qlDatedOISRateHelper(K59,B59,B60,J59,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M59" s="85" t="str">
+      <c r="M59" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L59)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N59" s="81"/>
       <c r="P59" s="106" t="e">
@@ -12296,9 +12294,9 @@
         <f>_xll.qlDatedOISRateHelper(K60,B60,B61,J60,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M60" s="85" t="str">
+      <c r="M60" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L60)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N60" s="81"/>
       <c r="P60" s="106" t="e">
@@ -12349,9 +12347,9 @@
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M61" s="85" t="str">
+      <c r="M61" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N61" s="81"/>
       <c r="P61" s="106" t="e">
@@ -12402,9 +12400,9 @@
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M62" s="85" t="str">
+      <c r="M62" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N62" s="81"/>
       <c r="P62" s="106" t="e">
@@ -12455,9 +12453,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M63" s="85" t="str">
+      <c r="M63" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -12508,9 +12506,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M64" s="85" t="str">
+      <c r="M64" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -12561,9 +12559,9 @@
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M65" s="85" t="str">
+      <c r="M65" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -12614,9 +12612,9 @@
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M66" s="85" t="str">
+      <c r="M66" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -12667,9 +12665,9 @@
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M67" s="85" t="str">
+      <c r="M67" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -12720,9 +12718,9 @@
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M68" s="85" t="str">
+      <c r="M68" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N68" s="81"/>
       <c r="P68" s="106" t="e">
@@ -12773,9 +12771,9 @@
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M69" s="85" t="str">
+      <c r="M69" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N69" s="81"/>
       <c r="P69" s="106" t="e">
@@ -12826,9 +12824,9 @@
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M70" s="85" t="str">
+      <c r="M70" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N70" s="81"/>
       <c r="P70" s="106" t="e">
@@ -12879,9 +12877,9 @@
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M71" s="85" t="str">
+      <c r="M71" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N71" s="81"/>
       <c r="P71" s="106" t="e">
@@ -12932,9 +12930,9 @@
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M72" s="85" t="str">
+      <c r="M72" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N72" s="81"/>
       <c r="P72" s="106" t="e">
@@ -12985,9 +12983,9 @@
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M73" s="85" t="str">
+      <c r="M73" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N73" s="81"/>
       <c r="P73" s="106" t="e">
@@ -13038,9 +13036,9 @@
         <f>_xll.qlDatedOISRateHelper(K74,B74,B75,J74,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M74" s="85" t="str">
+      <c r="M74" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N74" s="81"/>
       <c r="P74" s="106" t="e">
@@ -13091,9 +13089,9 @@
         <f>_xll.qlDatedOISRateHelper(K75,B75,B76,J75,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M75" s="85" t="str">
+      <c r="M75" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L75)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N75" s="81"/>
       <c r="P75" s="106" t="e">
@@ -13144,9 +13142,9 @@
         <f>_xll.qlDatedOISRateHelper(K76,B76,B77,J76,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M76" s="85" t="str">
+      <c r="M76" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L76)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N76" s="81"/>
       <c r="P76" s="106" t="e">
@@ -13197,9 +13195,9 @@
         <f>_xll.qlDatedOISRateHelper(K77,B77,#REF!,J77,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M77" s="85" t="str">
+      <c r="M77" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L77)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N77" s="81"/>
       <c r="P77" s="106" t="e">
@@ -13349,12 +13347,12 @@
         <v>EUR_YC1MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
@@ -14042,12 +14040,12 @@
         <v>EUR_YC3MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
@@ -16309,12 +16307,12 @@
         <v>EUR_YC6MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
     </row>
@@ -18237,12 +18235,12 @@
         <v>EUR_YC1M-MxRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
@@ -18932,12 +18930,12 @@
         <v>EUR_YC3M-MxRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
